--- a/public/mau_import_exercise.xlsx
+++ b/public/mau_import_exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neyuh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647AF636-E1DC-4A65-89A3-B81ACC7F3B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034A5AA9-D867-984A-BDD9-80523C68D6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D6392E89-A4BB-467A-A5B0-D32E9131FE02}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{D6392E89-A4BB-467A-A5B0-D32E9131FE02}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Câu trả lời đúng</t>
-  </si>
-  <si>
-    <t>Chọn 1 đáp án</t>
   </si>
   <si>
     <t>Hàm setup() trong chương trình Arduino được gọi:</t>
@@ -147,7 +144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -163,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,20 +476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8555B1-4871-46D7-A941-1BD6379C8820}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="4" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,72 +502,66 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
